--- a/results/glms results/germination GLMs.xlsx
+++ b/results/glms results/germination GLMs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Hidro_thermal_experiments/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Hidro_thermal_experiments/results/glms results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{3D5FEE67-30FC-4520-A1AA-E5DE70DFF8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D159A67-C303-462D-9911-1DFF1A75C6B2}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{3D5FEE67-30FC-4520-A1AA-E5DE70DFF8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92920645-5198-4BAB-BA18-936FEF4ACBD2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4EC70B9B-2302-4362-81ED-FA6B2CB2D8F5}"/>
   </bookViews>
@@ -38,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
-  <si>
-    <t xml:space="preserve"> Family: binomial  ( logit )</t>
-  </si>
-  <si>
-    <t>Formula:          cbind(grs, viable - grs) ~ WP_treatment * sowing_time + (1 |      site/ID)</t>
-  </si>
-  <si>
-    <t>Data: germ_indices</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t xml:space="preserve">     AIC      BIC   logLik deviance df.resid </t>
   </si>
@@ -58,12 +49,6 @@
     <t>Conditional model:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Groups  Name        Variance Std.Dev.</t>
-  </si>
-  <si>
-    <t>Number of obs: 526, groups:  ID:site, 16; site, 4</t>
-  </si>
-  <si>
     <t>AIC</t>
   </si>
   <si>
@@ -127,73 +112,70 @@
     <t>WP_treatment:sowing_timeImmediate</t>
   </si>
   <si>
-    <t>Formula:          cbind(grs, viable - grs) ~ WP_treatment * GDD + (1 | site/ID)</t>
-  </si>
-  <si>
-    <t>Data: germ_ind_im</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   885.9    907.7   -437.0    873.9      274 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID:site (Intercept) 0.04050  0.2012  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> site    (Intercept) 0.02478  0.1574  </t>
-  </si>
-  <si>
-    <t>Number of obs: 280, groups:  ID:site, 10; site, 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">                   Estimate Std. Error z value Pr(&gt;|z|)    </t>
   </si>
   <si>
-    <t xml:space="preserve">(Intercept)       1.8719039  0.5870451   3.189  0.00143 ** </t>
-  </si>
-  <si>
-    <t>WP_treatment      7.3092092  1.1607215   6.297 3.03e-10 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDD              -0.0005461  0.0002972  -1.837  0.06614 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP_treatment:GDD -0.0008885  0.0005611  -1.583  0.11333    </t>
-  </si>
-  <si>
     <t>Family: binomial  ( logit )</t>
   </si>
   <si>
-    <t>Data: germ_ind_af</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   930.9    952.0   -459.5    918.9      240 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Groups  Name        Variance  Std.Dev. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ID:site (Intercept) 7.456e-02 2.730e-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> site    (Intercept) 2.154e-09 4.641e-05</t>
-  </si>
-  <si>
-    <t>Number of obs: 246, groups:  ID:site, 11; site, 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                  Estimate Std. Error z value Pr(&gt;|z|)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Intercept)      1.5871898  0.9067909   1.750 0.080060 .  </t>
-  </si>
-  <si>
-    <t>WP_treatment     5.3447218  1.4822617   3.606 0.000311 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GDD              0.0007862  0.0004623   1.701 0.089005 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP_treatment:GDD 0.0010126  0.0007378   1.372 0.169918    </t>
+    <t>Formula:          cbind(germinated, viable - germinated) ~ WP_treatment * sowing_time +      (1 | site/ID)</t>
+  </si>
+  <si>
+    <t>Data: df</t>
+  </si>
+  <si>
+    <t>Number of obs: 606, groups:  ID:site, 18; site, 4</t>
+  </si>
+  <si>
+    <t>Formula:          cbind(germinated, viable - germinated) ~ WP_treatment * GDD +      (1 | site/ID)</t>
+  </si>
+  <si>
+    <t>Data: final_germ_im</t>
+  </si>
+  <si>
+    <t>Number of obs: 308, groups:  ID:site, 11; site, 4</t>
+  </si>
+  <si>
+    <t>1 plots missing</t>
+  </si>
+  <si>
+    <t>GDD</t>
+  </si>
+  <si>
+    <t>WP_treatment:GDD</t>
+  </si>
+  <si>
+    <t>Formula:          cbind(germinated, viable - germinated) ~ WP_treatment * GDD +      (1 | ID)</t>
+  </si>
+  <si>
+    <t>Data: final_germ_af</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1489.9   1507.9   -739.9   1479.9      265 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Groups Name        Variance Std.Dev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID     (Intercept) 0.001954 0.0442  </t>
+  </si>
+  <si>
+    <t>Number of obs: 270, groups:  ID, 12</t>
+  </si>
+  <si>
+    <t>(Intercept)      -3.152e+00  2.054e-01 -15.349  &lt; 2e-16 ***</t>
+  </si>
+  <si>
+    <t>WP_treatment      2.839e+00  5.345e-01   5.311 1.09e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDD               7.063e-05  1.062e-04   0.665    0.506    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP_treatment:GDD -1.579e-05  2.747e-04  -0.058    0.954  </t>
+  </si>
+  <si>
+    <t>B00</t>
   </si>
 </sst>
 </file>
@@ -240,15 +222,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,10 +251,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -307,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -413,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -555,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,230 +555,231 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2631.3</v>
+      </c>
+      <c r="B7">
+        <v>2657.7</v>
+      </c>
+      <c r="C7">
+        <v>-1309.5999999999999</v>
+      </c>
+      <c r="D7">
+        <v>2619.3000000000002</v>
+      </c>
+      <c r="E7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1815.3</v>
-      </c>
-      <c r="B7">
-        <v>1840.9</v>
-      </c>
-      <c r="C7">
-        <v>-901.7</v>
-      </c>
-      <c r="D7">
-        <v>1803.3</v>
-      </c>
-      <c r="E7">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13">
+        <v>6.1799999999999997E-3</v>
+      </c>
+      <c r="D13">
+        <v>7.8609999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>2.0430000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>8.9115E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.29852000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>-3.0271699999999999</v>
+      </c>
+      <c r="C19">
+        <v>3.9669999999999997E-2</v>
+      </c>
+      <c r="D19">
+        <v>-76.31</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>6.9459999999999999E-3</v>
-      </c>
-      <c r="D14">
-        <v>8.3339999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
+      <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B20">
+        <v>2.8083399999999998</v>
+      </c>
+      <c r="C20">
+        <v>7.2650000000000006E-2</v>
+      </c>
+      <c r="D20">
+        <v>38.659999999999997</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E18" t="s">
+      <c r="B21">
+        <v>-0.42902000000000001</v>
+      </c>
+      <c r="C21">
+        <v>4.428E-2</v>
+      </c>
+      <c r="D21">
+        <v>-9.69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>3.0943000000000001</v>
-      </c>
-      <c r="C19">
-        <v>0.1244</v>
-      </c>
-      <c r="D19">
-        <v>24.88</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>7.2904</v>
-      </c>
-      <c r="C20">
-        <v>0.184</v>
-      </c>
-      <c r="D20">
-        <v>39.61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>-2.2902</v>
-      </c>
-      <c r="C21">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="D21">
-        <v>-19.75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B22">
-        <v>-1.6993</v>
+        <v>0.97418000000000005</v>
       </c>
       <c r="C22">
-        <v>0.24440000000000001</v>
+        <v>0.12614</v>
       </c>
       <c r="D22">
-        <v>-6.95</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3.5800000000000001E-12</v>
+        <v>7.72</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.1400000000000001E-14</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -799,109 +789,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E882E93-F5D1-4A72-82C9-3BA2975AD269}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A21"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1052.7</v>
+      </c>
+      <c r="B6">
+        <v>1075.0999999999999</v>
+      </c>
+      <c r="C6">
+        <v>-520.4</v>
+      </c>
+      <c r="D6">
+        <v>1040.7</v>
+      </c>
+      <c r="E6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>9.1199999999999996E-3</v>
+      </c>
+      <c r="D12">
+        <v>9.5500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>5.5310000000000003E-3</v>
+      </c>
+      <c r="D13">
+        <v>7.4370000000000006E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-3.0779999999999998</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="D18">
+        <v>-9.7829999999999995</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3.9220000000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.73839999999999995</v>
+      </c>
+      <c r="D19">
+        <v>5.3120000000000003</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.09E-7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B20" s="1">
+        <v>-1.998E-4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.6239999999999999E-4</v>
+      </c>
+      <c r="D20">
+        <v>-1.23</v>
+      </c>
+      <c r="E20">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
+      <c r="B21" s="1">
+        <v>-7.8430000000000006E-5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.8460000000000002E-4</v>
+      </c>
+      <c r="D21">
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.83799999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -911,109 +1026,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6B208A-5D99-431F-AA45-028181FCAA4F}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
